--- a/Report.xlsx
+++ b/Report.xlsx
@@ -572,7 +572,7 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2020-12-16 (수) 업무현황_요약보고</t>
+          <t>2020-12-17 (목) 업무현황_요약보고</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr"/>
@@ -709,12 +709,12 @@
           <t>화</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>수</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>목</t>
         </is>
@@ -799,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I3" s="6" t="n">
         <v/>
@@ -812,11 +812,11 @@
       <c r="M3" s="8" t="inlineStr"/>
       <c r="N3" s="8" t="inlineStr"/>
       <c r="O3" s="8" t="inlineStr"/>
-      <c r="P3" s="8" t="inlineStr"/>
-      <c r="Q3" s="8" t="inlineStr"/>
-      <c r="R3" s="8" t="n">
+      <c r="P3" s="8" t="n">
         <v>100</v>
       </c>
+      <c r="Q3" s="9" t="inlineStr"/>
+      <c r="R3" s="9" t="inlineStr"/>
       <c r="S3" s="9" t="inlineStr"/>
       <c r="T3" s="9" t="inlineStr"/>
       <c r="U3" s="9" t="inlineStr"/>
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="12" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="I4" s="11" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="12" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I5" s="11" t="inlineStr">
         <is>
@@ -940,11 +940,11 @@
       <c r="M5" s="8" t="inlineStr"/>
       <c r="N5" s="8" t="inlineStr"/>
       <c r="O5" s="8" t="inlineStr"/>
-      <c r="P5" s="8" t="inlineStr"/>
-      <c r="Q5" s="8" t="inlineStr"/>
-      <c r="R5" s="8" t="n">
+      <c r="P5" s="8" t="n">
         <v>100</v>
       </c>
+      <c r="Q5" s="9" t="inlineStr"/>
+      <c r="R5" s="9" t="inlineStr"/>
       <c r="S5" s="9" t="inlineStr"/>
       <c r="T5" s="9" t="inlineStr"/>
       <c r="U5" s="9" t="inlineStr"/>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="12" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I6" s="11" t="inlineStr">
         <is>
@@ -1006,11 +1006,11 @@
       <c r="N6" s="9" t="inlineStr"/>
       <c r="O6" s="9" t="inlineStr"/>
       <c r="P6" s="9" t="inlineStr"/>
-      <c r="Q6" s="9" t="inlineStr"/>
+      <c r="Q6" s="8" t="n">
+        <v>100</v>
+      </c>
       <c r="R6" s="9" t="inlineStr"/>
-      <c r="S6" s="8" t="n">
-        <v>100</v>
-      </c>
+      <c r="S6" s="9" t="inlineStr"/>
       <c r="T6" s="9" t="inlineStr"/>
       <c r="U6" s="9" t="inlineStr"/>
       <c r="V6" s="9" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>46</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="6" t="n">
         <v/>
@@ -1069,13 +1069,13 @@
       <c r="N7" s="9" t="inlineStr"/>
       <c r="O7" s="9" t="inlineStr"/>
       <c r="P7" s="9" t="inlineStr"/>
-      <c r="Q7" s="9" t="inlineStr"/>
-      <c r="R7" s="9" t="inlineStr"/>
+      <c r="Q7" s="8" t="inlineStr"/>
+      <c r="R7" s="8" t="inlineStr"/>
       <c r="S7" s="8" t="inlineStr"/>
-      <c r="T7" s="14" t="n">
+      <c r="T7" s="8" t="inlineStr"/>
+      <c r="U7" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="U7" s="8" t="inlineStr"/>
       <c r="V7" s="8" t="inlineStr"/>
       <c r="W7" s="8" t="inlineStr"/>
       <c r="X7" s="8" t="inlineStr"/>
@@ -1118,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="11" t="inlineStr">
         <is>
@@ -1134,19 +1134,19 @@
       <c r="N8" s="9" t="inlineStr"/>
       <c r="O8" s="9" t="inlineStr"/>
       <c r="P8" s="9" t="inlineStr"/>
-      <c r="Q8" s="9" t="inlineStr"/>
-      <c r="R8" s="9" t="inlineStr"/>
+      <c r="Q8" s="8" t="inlineStr"/>
+      <c r="R8" s="8" t="inlineStr"/>
       <c r="S8" s="8" t="inlineStr"/>
-      <c r="T8" s="15" t="n">
+      <c r="T8" s="8" t="inlineStr"/>
+      <c r="U8" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="U8" s="8" t="inlineStr"/>
       <c r="V8" s="8" t="inlineStr"/>
-      <c r="W8" s="8" t="inlineStr"/>
-      <c r="X8" s="8" t="inlineStr"/>
-      <c r="Y8" s="8" t="n">
+      <c r="W8" s="8" t="n">
         <v>100</v>
       </c>
+      <c r="X8" s="9" t="inlineStr"/>
+      <c r="Y8" s="9" t="inlineStr"/>
       <c r="Z8" s="9" t="inlineStr"/>
       <c r="AA8" s="9" t="inlineStr"/>
       <c r="AB8" s="9" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="17" t="inlineStr">
         <is>
@@ -1206,8 +1206,8 @@
       <c r="U9" s="9" t="inlineStr"/>
       <c r="V9" s="9" t="inlineStr"/>
       <c r="W9" s="9" t="inlineStr"/>
-      <c r="X9" s="9" t="inlineStr"/>
-      <c r="Y9" s="9" t="inlineStr"/>
+      <c r="X9" s="8" t="inlineStr"/>
+      <c r="Y9" s="8" t="inlineStr"/>
       <c r="Z9" s="8" t="inlineStr"/>
       <c r="AA9" s="8" t="inlineStr"/>
       <c r="AB9" s="8" t="inlineStr"/>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="17" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="17" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="6" t="n">
         <v/>
@@ -1386,13 +1386,13 @@
       <c r="N12" s="9" t="inlineStr"/>
       <c r="O12" s="9" t="inlineStr"/>
       <c r="P12" s="9" t="inlineStr"/>
-      <c r="Q12" s="9" t="inlineStr"/>
-      <c r="R12" s="9" t="inlineStr"/>
+      <c r="Q12" s="8" t="inlineStr"/>
+      <c r="R12" s="8" t="inlineStr"/>
       <c r="S12" s="8" t="inlineStr"/>
-      <c r="T12" s="14" t="n">
+      <c r="T12" s="8" t="inlineStr"/>
+      <c r="U12" s="14" t="n">
         <v>33</v>
       </c>
-      <c r="U12" s="8" t="inlineStr"/>
       <c r="V12" s="8" t="inlineStr"/>
       <c r="W12" s="8" t="inlineStr"/>
       <c r="X12" s="8" t="inlineStr"/>
@@ -1435,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11" t="inlineStr">
         <is>
@@ -1451,16 +1451,14 @@
       <c r="N13" s="9" t="inlineStr"/>
       <c r="O13" s="9" t="inlineStr"/>
       <c r="P13" s="9" t="inlineStr"/>
-      <c r="Q13" s="9" t="inlineStr"/>
-      <c r="R13" s="9" t="inlineStr"/>
+      <c r="Q13" s="8" t="inlineStr"/>
+      <c r="R13" s="8" t="inlineStr"/>
       <c r="S13" s="8" t="inlineStr"/>
-      <c r="T13" s="15" t="n">
+      <c r="T13" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="U13" s="8" t="inlineStr"/>
-      <c r="V13" s="8" t="n">
-        <v>100</v>
-      </c>
+      <c r="U13" s="9" t="inlineStr"/>
+      <c r="V13" s="9" t="inlineStr"/>
       <c r="W13" s="9" t="inlineStr"/>
       <c r="X13" s="9" t="inlineStr"/>
       <c r="Y13" s="9" t="inlineStr"/>
@@ -1502,7 +1500,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="17" t="inlineStr">
         <is>
@@ -1524,8 +1522,8 @@
       <c r="T14" s="9" t="inlineStr"/>
       <c r="U14" s="9" t="inlineStr"/>
       <c r="V14" s="9" t="inlineStr"/>
-      <c r="W14" s="9" t="inlineStr"/>
-      <c r="X14" s="9" t="inlineStr"/>
+      <c r="W14" s="8" t="inlineStr"/>
+      <c r="X14" s="8" t="inlineStr"/>
       <c r="Y14" s="8" t="inlineStr"/>
       <c r="Z14" s="8" t="inlineStr"/>
       <c r="AA14" s="8" t="inlineStr"/>
@@ -1565,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="17" t="inlineStr">
         <is>
@@ -1628,7 +1626,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="17" t="inlineStr">
         <is>
@@ -1691,7 +1689,7 @@
         <v>77</v>
       </c>
       <c r="H17" s="7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="6" t="n">
         <v/>
@@ -1705,13 +1703,13 @@
       <c r="N17" s="9" t="inlineStr"/>
       <c r="O17" s="9" t="inlineStr"/>
       <c r="P17" s="9" t="inlineStr"/>
-      <c r="Q17" s="9" t="inlineStr"/>
-      <c r="R17" s="9" t="inlineStr"/>
+      <c r="Q17" s="8" t="inlineStr"/>
+      <c r="R17" s="8" t="inlineStr"/>
       <c r="S17" s="8" t="inlineStr"/>
-      <c r="T17" s="14" t="n">
+      <c r="T17" s="8" t="inlineStr"/>
+      <c r="U17" s="14" t="n">
         <v>26</v>
       </c>
-      <c r="U17" s="8" t="inlineStr"/>
       <c r="V17" s="8" t="inlineStr"/>
       <c r="W17" s="8" t="inlineStr"/>
       <c r="X17" s="8" t="inlineStr"/>
@@ -1754,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="H18" s="12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
@@ -1770,19 +1768,19 @@
       <c r="N18" s="9" t="inlineStr"/>
       <c r="O18" s="9" t="inlineStr"/>
       <c r="P18" s="9" t="inlineStr"/>
-      <c r="Q18" s="9" t="inlineStr"/>
-      <c r="R18" s="9" t="inlineStr"/>
+      <c r="Q18" s="8" t="inlineStr"/>
+      <c r="R18" s="8" t="inlineStr"/>
       <c r="S18" s="8" t="inlineStr"/>
-      <c r="T18" s="15" t="n">
+      <c r="T18" s="8" t="inlineStr"/>
+      <c r="U18" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="U18" s="8" t="inlineStr"/>
       <c r="V18" s="8" t="inlineStr"/>
-      <c r="W18" s="8" t="inlineStr"/>
-      <c r="X18" s="8" t="inlineStr"/>
-      <c r="Y18" s="8" t="n">
+      <c r="W18" s="8" t="n">
         <v>100</v>
       </c>
+      <c r="X18" s="9" t="inlineStr"/>
+      <c r="Y18" s="9" t="inlineStr"/>
       <c r="Z18" s="9" t="inlineStr"/>
       <c r="AA18" s="9" t="inlineStr"/>
       <c r="AB18" s="9" t="inlineStr"/>
@@ -1821,7 +1819,7 @@
         <v>28</v>
       </c>
       <c r="H19" s="13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="17" t="inlineStr">
         <is>
@@ -1844,8 +1842,8 @@
       <c r="U19" s="9" t="inlineStr"/>
       <c r="V19" s="9" t="inlineStr"/>
       <c r="W19" s="9" t="inlineStr"/>
-      <c r="X19" s="9" t="inlineStr"/>
-      <c r="Y19" s="9" t="inlineStr"/>
+      <c r="X19" s="8" t="inlineStr"/>
+      <c r="Y19" s="8" t="inlineStr"/>
       <c r="Z19" s="8" t="inlineStr"/>
       <c r="AA19" s="8" t="inlineStr"/>
       <c r="AB19" s="8" t="inlineStr"/>
@@ -1884,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="17" t="inlineStr">
         <is>
@@ -1947,7 +1945,7 @@
         <v>42</v>
       </c>
       <c r="H21" s="13" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="17" t="inlineStr">
         <is>
@@ -2010,7 +2008,7 @@
         <v>98</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I22" s="6" t="n">
         <v/>
@@ -2071,7 +2069,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="17" t="inlineStr">
         <is>
@@ -2132,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="17" t="n">
         <v/>
@@ -2193,7 +2191,7 @@
         <v>18</v>
       </c>
       <c r="H25" s="13" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" s="17" t="inlineStr">
         <is>
@@ -2256,7 +2254,7 @@
         <v>19</v>
       </c>
       <c r="H26" s="13" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I26" s="17" t="inlineStr">
         <is>
@@ -2319,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="H27" s="13" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I27" s="17" t="inlineStr">
         <is>
@@ -2382,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="13" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I28" s="17" t="inlineStr">
         <is>
@@ -2445,7 +2443,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="13" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I29" s="17" t="inlineStr">
         <is>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="기구팀" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -572,7 +572,7 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2020-12-17 (목) 업무현황_요약보고</t>
+          <t>2020-12-18 (금) 기구팀_업무현황_요약보고</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr"/>
@@ -714,12 +714,12 @@
           <t>수</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="2" t="inlineStr">
         <is>
           <t>목</t>
         </is>
       </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>금</t>
         </is>
@@ -774,7 +774,7 @@
       <c r="A3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -799,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="I3" s="6" t="n">
         <v/>
@@ -812,11 +812,11 @@
       <c r="M3" s="8" t="inlineStr"/>
       <c r="N3" s="8" t="inlineStr"/>
       <c r="O3" s="8" t="inlineStr"/>
-      <c r="P3" s="8" t="n">
+      <c r="P3" s="8" t="inlineStr"/>
+      <c r="Q3" s="8" t="inlineStr"/>
+      <c r="R3" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="Q3" s="9" t="inlineStr"/>
-      <c r="R3" s="9" t="inlineStr"/>
       <c r="S3" s="9" t="inlineStr"/>
       <c r="T3" s="9" t="inlineStr"/>
       <c r="U3" s="9" t="inlineStr"/>
@@ -835,8 +835,10 @@
       <c r="A4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="n">
-        <v>1.1</v>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
@@ -862,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="12" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="I4" s="11" t="inlineStr">
         <is>
@@ -898,8 +900,10 @@
       <c r="A5" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="n">
-        <v>1.2</v>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
@@ -925,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="12" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="I5" s="11" t="inlineStr">
         <is>
@@ -940,11 +944,11 @@
       <c r="M5" s="8" t="inlineStr"/>
       <c r="N5" s="8" t="inlineStr"/>
       <c r="O5" s="8" t="inlineStr"/>
-      <c r="P5" s="8" t="n">
+      <c r="P5" s="8" t="inlineStr"/>
+      <c r="Q5" s="8" t="inlineStr"/>
+      <c r="R5" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="Q5" s="9" t="inlineStr"/>
-      <c r="R5" s="9" t="inlineStr"/>
       <c r="S5" s="9" t="inlineStr"/>
       <c r="T5" s="9" t="inlineStr"/>
       <c r="U5" s="9" t="inlineStr"/>
@@ -963,8 +967,10 @@
       <c r="A6" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="n">
-        <v>1.3</v>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
@@ -990,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="12" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I6" s="11" t="inlineStr">
         <is>
@@ -1006,11 +1012,11 @@
       <c r="N6" s="9" t="inlineStr"/>
       <c r="O6" s="9" t="inlineStr"/>
       <c r="P6" s="9" t="inlineStr"/>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="9" t="inlineStr"/>
+      <c r="R6" s="9" t="inlineStr"/>
+      <c r="S6" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="R6" s="9" t="inlineStr"/>
-      <c r="S6" s="9" t="inlineStr"/>
       <c r="T6" s="9" t="inlineStr"/>
       <c r="U6" s="9" t="inlineStr"/>
       <c r="V6" s="9" t="inlineStr"/>
@@ -1028,7 +1034,7 @@
       <c r="A7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="inlineStr">
@@ -1055,7 +1061,7 @@
         <v>46</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="6" t="n">
         <v/>
@@ -1069,14 +1075,14 @@
       <c r="N7" s="9" t="inlineStr"/>
       <c r="O7" s="9" t="inlineStr"/>
       <c r="P7" s="9" t="inlineStr"/>
-      <c r="Q7" s="8" t="inlineStr"/>
-      <c r="R7" s="8" t="inlineStr"/>
+      <c r="Q7" s="9" t="inlineStr"/>
+      <c r="R7" s="9" t="inlineStr"/>
       <c r="S7" s="8" t="inlineStr"/>
       <c r="T7" s="8" t="inlineStr"/>
-      <c r="U7" s="14" t="n">
+      <c r="U7" s="8" t="inlineStr"/>
+      <c r="V7" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="V7" s="8" t="inlineStr"/>
       <c r="W7" s="8" t="inlineStr"/>
       <c r="X7" s="8" t="inlineStr"/>
       <c r="Y7" s="8" t="inlineStr"/>
@@ -1091,8 +1097,10 @@
       <c r="A8" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="n">
-        <v>2.1</v>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
@@ -1118,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="11" t="inlineStr">
         <is>
@@ -1134,19 +1142,19 @@
       <c r="N8" s="9" t="inlineStr"/>
       <c r="O8" s="9" t="inlineStr"/>
       <c r="P8" s="9" t="inlineStr"/>
-      <c r="Q8" s="8" t="inlineStr"/>
-      <c r="R8" s="8" t="inlineStr"/>
+      <c r="Q8" s="9" t="inlineStr"/>
+      <c r="R8" s="9" t="inlineStr"/>
       <c r="S8" s="8" t="inlineStr"/>
       <c r="T8" s="8" t="inlineStr"/>
-      <c r="U8" s="15" t="n">
+      <c r="U8" s="8" t="inlineStr"/>
+      <c r="V8" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="V8" s="8" t="inlineStr"/>
-      <c r="W8" s="8" t="n">
+      <c r="W8" s="8" t="inlineStr"/>
+      <c r="X8" s="8" t="inlineStr"/>
+      <c r="Y8" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="X8" s="9" t="inlineStr"/>
-      <c r="Y8" s="9" t="inlineStr"/>
       <c r="Z8" s="9" t="inlineStr"/>
       <c r="AA8" s="9" t="inlineStr"/>
       <c r="AB8" s="9" t="inlineStr"/>
@@ -1158,8 +1166,10 @@
       <c r="A9" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="n">
-        <v>2.2</v>
+      <c r="B9" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C9" s="17" t="inlineStr">
         <is>
@@ -1183,7 +1193,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="17" t="inlineStr">
         <is>
@@ -1206,8 +1216,8 @@
       <c r="U9" s="9" t="inlineStr"/>
       <c r="V9" s="9" t="inlineStr"/>
       <c r="W9" s="9" t="inlineStr"/>
-      <c r="X9" s="8" t="inlineStr"/>
-      <c r="Y9" s="8" t="inlineStr"/>
+      <c r="X9" s="9" t="inlineStr"/>
+      <c r="Y9" s="9" t="inlineStr"/>
       <c r="Z9" s="8" t="inlineStr"/>
       <c r="AA9" s="8" t="inlineStr"/>
       <c r="AB9" s="8" t="inlineStr"/>
@@ -1219,8 +1229,10 @@
       <c r="A10" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="n">
-        <v>2.3</v>
+      <c r="B10" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C10" s="17" t="inlineStr">
         <is>
@@ -1246,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="17" t="inlineStr">
         <is>
@@ -1282,8 +1294,10 @@
       <c r="A11" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="n">
-        <v>2.4</v>
+      <c r="B11" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C11" s="17" t="inlineStr">
         <is>
@@ -1309,7 +1323,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="17" t="inlineStr">
         <is>
@@ -1345,7 +1359,7 @@
       <c r="A12" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C12" s="6" t="inlineStr">
@@ -1372,7 +1386,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="6" t="n">
         <v/>
@@ -1386,14 +1400,14 @@
       <c r="N12" s="9" t="inlineStr"/>
       <c r="O12" s="9" t="inlineStr"/>
       <c r="P12" s="9" t="inlineStr"/>
-      <c r="Q12" s="8" t="inlineStr"/>
-      <c r="R12" s="8" t="inlineStr"/>
+      <c r="Q12" s="9" t="inlineStr"/>
+      <c r="R12" s="9" t="inlineStr"/>
       <c r="S12" s="8" t="inlineStr"/>
       <c r="T12" s="8" t="inlineStr"/>
-      <c r="U12" s="14" t="n">
+      <c r="U12" s="8" t="inlineStr"/>
+      <c r="V12" s="14" t="n">
         <v>33</v>
       </c>
-      <c r="V12" s="8" t="inlineStr"/>
       <c r="W12" s="8" t="inlineStr"/>
       <c r="X12" s="8" t="inlineStr"/>
       <c r="Y12" s="8" t="inlineStr"/>
@@ -1405,39 +1419,41 @@
       <c r="AE12" s="8" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="B13" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">  대략설계</t>
         </is>
       </c>
-      <c r="D13" s="12" t="inlineStr">
+      <c r="D13" s="13" t="inlineStr">
         <is>
           <t>코로나</t>
         </is>
       </c>
-      <c r="E13" s="12" t="inlineStr">
+      <c r="E13" s="13" t="inlineStr">
         <is>
           <t>2020-12-15</t>
         </is>
       </c>
-      <c r="F13" s="12" t="inlineStr">
+      <c r="F13" s="13" t="inlineStr">
         <is>
           <t>2020-12-18</t>
         </is>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11" t="inlineStr">
+      <c r="H13" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="17" t="inlineStr">
         <is>
           <t>3D 모델링 마스터 구현</t>
         </is>
@@ -1451,14 +1467,14 @@
       <c r="N13" s="9" t="inlineStr"/>
       <c r="O13" s="9" t="inlineStr"/>
       <c r="P13" s="9" t="inlineStr"/>
-      <c r="Q13" s="8" t="inlineStr"/>
-      <c r="R13" s="8" t="inlineStr"/>
+      <c r="Q13" s="9" t="inlineStr"/>
+      <c r="R13" s="9" t="inlineStr"/>
       <c r="S13" s="8" t="inlineStr"/>
-      <c r="T13" s="8" t="n">
+      <c r="T13" s="8" t="inlineStr"/>
+      <c r="U13" s="8" t="inlineStr"/>
+      <c r="V13" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="U13" s="9" t="inlineStr"/>
-      <c r="V13" s="9" t="inlineStr"/>
       <c r="W13" s="9" t="inlineStr"/>
       <c r="X13" s="9" t="inlineStr"/>
       <c r="Y13" s="9" t="inlineStr"/>
@@ -1473,8 +1489,10 @@
       <c r="A14" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="n">
-        <v>3.2</v>
+      <c r="B14" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C14" s="17" t="inlineStr">
         <is>
@@ -1500,7 +1518,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="17" t="inlineStr">
         <is>
@@ -1522,8 +1540,8 @@
       <c r="T14" s="9" t="inlineStr"/>
       <c r="U14" s="9" t="inlineStr"/>
       <c r="V14" s="9" t="inlineStr"/>
-      <c r="W14" s="8" t="inlineStr"/>
-      <c r="X14" s="8" t="inlineStr"/>
+      <c r="W14" s="9" t="inlineStr"/>
+      <c r="X14" s="9" t="inlineStr"/>
       <c r="Y14" s="8" t="inlineStr"/>
       <c r="Z14" s="8" t="inlineStr"/>
       <c r="AA14" s="8" t="inlineStr"/>
@@ -1536,8 +1554,10 @@
       <c r="A15" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="17" t="n">
-        <v>3.3</v>
+      <c r="B15" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C15" s="17" t="inlineStr">
         <is>
@@ -1563,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="17" t="inlineStr">
         <is>
@@ -1599,8 +1619,10 @@
       <c r="A16" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="n">
-        <v>3.4</v>
+      <c r="B16" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C16" s="17" t="inlineStr">
         <is>
@@ -1626,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="17" t="inlineStr">
         <is>
@@ -1662,7 +1684,7 @@
       <c r="A17" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C17" s="6" t="inlineStr">
@@ -1689,7 +1711,7 @@
         <v>77</v>
       </c>
       <c r="H17" s="7" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="6" t="n">
         <v/>
@@ -1703,14 +1725,14 @@
       <c r="N17" s="9" t="inlineStr"/>
       <c r="O17" s="9" t="inlineStr"/>
       <c r="P17" s="9" t="inlineStr"/>
-      <c r="Q17" s="8" t="inlineStr"/>
-      <c r="R17" s="8" t="inlineStr"/>
+      <c r="Q17" s="9" t="inlineStr"/>
+      <c r="R17" s="9" t="inlineStr"/>
       <c r="S17" s="8" t="inlineStr"/>
       <c r="T17" s="8" t="inlineStr"/>
-      <c r="U17" s="14" t="n">
+      <c r="U17" s="8" t="inlineStr"/>
+      <c r="V17" s="14" t="n">
         <v>26</v>
       </c>
-      <c r="V17" s="8" t="inlineStr"/>
       <c r="W17" s="8" t="inlineStr"/>
       <c r="X17" s="8" t="inlineStr"/>
       <c r="Y17" s="8" t="inlineStr"/>
@@ -1725,8 +1747,10 @@
       <c r="A18" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="n">
-        <v>4.1</v>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C18" s="11" t="inlineStr">
         <is>
@@ -1752,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="H18" s="12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
@@ -1768,19 +1792,19 @@
       <c r="N18" s="9" t="inlineStr"/>
       <c r="O18" s="9" t="inlineStr"/>
       <c r="P18" s="9" t="inlineStr"/>
-      <c r="Q18" s="8" t="inlineStr"/>
-      <c r="R18" s="8" t="inlineStr"/>
+      <c r="Q18" s="9" t="inlineStr"/>
+      <c r="R18" s="9" t="inlineStr"/>
       <c r="S18" s="8" t="inlineStr"/>
       <c r="T18" s="8" t="inlineStr"/>
-      <c r="U18" s="15" t="n">
+      <c r="U18" s="8" t="inlineStr"/>
+      <c r="V18" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="V18" s="8" t="inlineStr"/>
-      <c r="W18" s="8" t="n">
+      <c r="W18" s="8" t="inlineStr"/>
+      <c r="X18" s="8" t="inlineStr"/>
+      <c r="Y18" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="X18" s="9" t="inlineStr"/>
-      <c r="Y18" s="9" t="inlineStr"/>
       <c r="Z18" s="9" t="inlineStr"/>
       <c r="AA18" s="9" t="inlineStr"/>
       <c r="AB18" s="9" t="inlineStr"/>
@@ -1792,8 +1816,10 @@
       <c r="A19" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="17" t="n">
-        <v>4.2</v>
+      <c r="B19" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C19" s="17" t="inlineStr">
         <is>
@@ -1819,7 +1845,7 @@
         <v>28</v>
       </c>
       <c r="H19" s="13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="17" t="inlineStr">
         <is>
@@ -1842,8 +1868,8 @@
       <c r="U19" s="9" t="inlineStr"/>
       <c r="V19" s="9" t="inlineStr"/>
       <c r="W19" s="9" t="inlineStr"/>
-      <c r="X19" s="8" t="inlineStr"/>
-      <c r="Y19" s="8" t="inlineStr"/>
+      <c r="X19" s="9" t="inlineStr"/>
+      <c r="Y19" s="9" t="inlineStr"/>
       <c r="Z19" s="8" t="inlineStr"/>
       <c r="AA19" s="8" t="inlineStr"/>
       <c r="AB19" s="8" t="inlineStr"/>
@@ -1855,8 +1881,10 @@
       <c r="A20" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="n">
-        <v>4.3</v>
+      <c r="B20" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C20" s="17" t="inlineStr">
         <is>
@@ -1882,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="17" t="inlineStr">
         <is>
@@ -1918,8 +1946,10 @@
       <c r="A21" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="n">
-        <v>4.4</v>
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C21" s="17" t="inlineStr">
         <is>
@@ -1945,7 +1975,7 @@
         <v>42</v>
       </c>
       <c r="H21" s="13" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21" s="17" t="inlineStr">
         <is>
@@ -1981,7 +2011,7 @@
       <c r="A22" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="n">
+      <c r="B22" s="5" t="n">
         <v>5</v>
       </c>
       <c r="C22" s="6" t="inlineStr">
@@ -2008,7 +2038,7 @@
         <v>98</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I22" s="6" t="n">
         <v/>
@@ -2042,8 +2072,10 @@
       <c r="A23" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="17" t="n">
-        <v>5.1</v>
+      <c r="B23" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C23" s="17" t="inlineStr">
         <is>
@@ -2069,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="17" t="inlineStr">
         <is>
@@ -2105,8 +2137,10 @@
       <c r="A24" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="17" t="n">
-        <v>5.2</v>
+      <c r="B24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C24" s="17" t="inlineStr">
         <is>
@@ -2130,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" s="17" t="n">
         <v/>
@@ -2164,8 +2198,10 @@
       <c r="A25" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="17" t="n">
-        <v>5.3</v>
+      <c r="B25" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C25" s="17" t="inlineStr">
         <is>
@@ -2191,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="H25" s="13" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" s="17" t="inlineStr">
         <is>
@@ -2227,8 +2263,10 @@
       <c r="A26" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="17" t="n">
-        <v>5.4</v>
+      <c r="B26" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
@@ -2254,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="H26" s="13" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I26" s="17" t="inlineStr">
         <is>
@@ -2290,8 +2328,10 @@
       <c r="A27" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="17" t="n">
-        <v>5.5</v>
+      <c r="B27" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C27" s="17" t="inlineStr">
         <is>
@@ -2317,7 +2357,7 @@
         <v>18</v>
       </c>
       <c r="H27" s="13" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I27" s="17" t="inlineStr">
         <is>
@@ -2353,8 +2393,10 @@
       <c r="A28" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="17" t="n">
-        <v>5.6</v>
+      <c r="B28" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C28" s="17" t="inlineStr">
         <is>
@@ -2380,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="13" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I28" s="17" t="inlineStr">
         <is>
@@ -2416,8 +2458,10 @@
       <c r="A29" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="17" t="n">
-        <v>5.7</v>
+      <c r="B29" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C29" s="17" t="inlineStr">
         <is>
@@ -2443,7 +2487,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="13" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I29" s="17" t="inlineStr">
         <is>
